--- a/Eddington/SR EDDINGTON-260/BLE_GAP_DISC_0003.xlsx
+++ b/Eddington/SR EDDINGTON-260/BLE_GAP_DISC_0003.xlsx
@@ -77,22 +77,6 @@
     <t>Function returns True.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Start scanning BT devices in the area with Parsed advertising data response
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-&gt;&gt;&gt; dut.ble_scan(10, BleInterface.SCAN_RESULT_FORMAT_RAW)</t>
-    </r>
-  </si>
-  <si>
     <t>Function returns a list of ScanResult objects.
 - There should be a least one ScanResult object with:
        • addr attribute matching the BLE Peripheral address.
@@ -207,6 +191,22 @@
         <scheme val="minor"/>
       </rPr>
       <t>Check discovery procedure response format with Raw advertising data response</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start scanning BT devices in the area with Raw advertising data response
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&gt;&gt;&gt; dut.ble_scan(10, BleInterface.SCAN_RESULT_FORMAT_RAW)</t>
     </r>
   </si>
 </sst>
@@ -616,7 +616,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +629,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -665,10 +665,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="D4" s="3"/>
     </row>
